--- a/Modern_Day_Lifestyles_QT_Data_19032023.xlsx
+++ b/Modern_Day_Lifestyles_QT_Data_19032023.xlsx
@@ -458,13 +458,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="0" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-14009]hh:mm;@"/>
-    <numFmt numFmtId="170" formatCode="[$-14009]h:mm;@"/>
+    <numFmt numFmtId="0" formatCode="[$-14009]dd/mm/yy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-14009]hh:mm;@"/>
+    <numFmt numFmtId="0" formatCode="[$-14009]h:mm;@"/>
     <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -568,13 +568,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -585,7 +586,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,7 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,28 +610,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,16 +658,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,7 +694,7 @@
     <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -702,11 +703,54 @@
     <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,9 +1094,9 @@
   <dimension ref="A1:AL706"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C520" sqref="C520"/>
+      <selection pane="bottomLeft" activeCell="F514" sqref="F514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21744,11 +21788,11 @@
       </c>
       <c r="X172" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y172" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z172" s="18">
         <v>6</v>
@@ -21865,11 +21909,11 @@
       </c>
       <c r="X173" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y173" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z173" s="18">
         <v>5</v>
@@ -22106,11 +22150,11 @@
       </c>
       <c r="X175" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y175" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z175" s="18">
         <v>6</v>
@@ -22227,11 +22271,11 @@
       </c>
       <c r="X176" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y176" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z176" s="18">
         <v>4</v>
@@ -22710,11 +22754,11 @@
       </c>
       <c r="X180" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y180" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z180" s="18">
         <v>5</v>
@@ -22951,11 +22995,11 @@
       </c>
       <c r="X182" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y182" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z182" s="18">
         <v>5</v>
@@ -54498,8 +54542,8 @@
       <c r="AK448" s="16">
         <v>172</v>
       </c>
-      <c r="AL448" s="16">
-        <v>74</v>
+      <c r="AL448" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:38" x14ac:dyDescent="0.25">
@@ -54618,8 +54662,8 @@
       <c r="AK449" s="16">
         <v>172</v>
       </c>
-      <c r="AL449" s="16">
-        <v>74</v>
+      <c r="AL449" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="450" spans="1:38" x14ac:dyDescent="0.25">
@@ -54738,8 +54782,8 @@
       <c r="AK450" s="16">
         <v>172</v>
       </c>
-      <c r="AL450" s="16">
-        <v>74</v>
+      <c r="AL450" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="451" spans="1:38" x14ac:dyDescent="0.25">
@@ -54858,8 +54902,8 @@
       <c r="AK451" s="16">
         <v>172</v>
       </c>
-      <c r="AL451" s="16">
-        <v>74</v>
+      <c r="AL451" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="452" spans="1:38" x14ac:dyDescent="0.25">
@@ -54978,8 +55022,8 @@
       <c r="AK452" s="16">
         <v>172</v>
       </c>
-      <c r="AL452" s="16">
-        <v>74</v>
+      <c r="AL452" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="453" spans="1:38" x14ac:dyDescent="0.25">
@@ -55098,8 +55142,8 @@
       <c r="AK453" s="16">
         <v>172</v>
       </c>
-      <c r="AL453" s="16">
-        <v>74</v>
+      <c r="AL453" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="454" spans="1:38" x14ac:dyDescent="0.25">
@@ -55218,8 +55262,8 @@
       <c r="AK454" s="16">
         <v>172</v>
       </c>
-      <c r="AL454" s="16">
-        <v>74</v>
+      <c r="AL454" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="455" spans="1:38" x14ac:dyDescent="0.25">
@@ -55338,8 +55382,8 @@
       <c r="AK455" s="16">
         <v>172</v>
       </c>
-      <c r="AL455" s="16">
-        <v>74</v>
+      <c r="AL455" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="456" spans="1:38" x14ac:dyDescent="0.25">
@@ -55458,8 +55502,8 @@
       <c r="AK456" s="16">
         <v>172</v>
       </c>
-      <c r="AL456" s="16">
-        <v>74</v>
+      <c r="AL456" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="457" spans="1:38" x14ac:dyDescent="0.25">
@@ -55578,8 +55622,8 @@
       <c r="AK457" s="16">
         <v>172</v>
       </c>
-      <c r="AL457" s="16">
-        <v>74</v>
+      <c r="AL457" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="458" spans="1:38" x14ac:dyDescent="0.25">
@@ -55698,8 +55742,8 @@
       <c r="AK458" s="16">
         <v>172</v>
       </c>
-      <c r="AL458" s="16">
-        <v>74</v>
+      <c r="AL458" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:38" x14ac:dyDescent="0.25">
@@ -55818,8 +55862,8 @@
       <c r="AK459" s="16">
         <v>172</v>
       </c>
-      <c r="AL459" s="16">
-        <v>74</v>
+      <c r="AL459" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="1:38" x14ac:dyDescent="0.25">
@@ -55938,8 +55982,8 @@
       <c r="AK460" s="16">
         <v>172</v>
       </c>
-      <c r="AL460" s="16">
-        <v>74</v>
+      <c r="AL460" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="1:38" x14ac:dyDescent="0.25">
@@ -56058,8 +56102,8 @@
       <c r="AK461" s="16">
         <v>172</v>
       </c>
-      <c r="AL461" s="16">
-        <v>74</v>
+      <c r="AL461" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="462" spans="1:38" x14ac:dyDescent="0.25">
@@ -56178,8 +56222,8 @@
       <c r="AK462" s="16">
         <v>172</v>
       </c>
-      <c r="AL462" s="16">
-        <v>74</v>
+      <c r="AL462" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="463" spans="1:38" x14ac:dyDescent="0.25">
@@ -56298,8 +56342,8 @@
       <c r="AK463" s="16">
         <v>172</v>
       </c>
-      <c r="AL463" s="16">
-        <v>74</v>
+      <c r="AL463" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:38" x14ac:dyDescent="0.25">
@@ -56418,8 +56462,8 @@
       <c r="AK464" s="16">
         <v>172</v>
       </c>
-      <c r="AL464" s="16">
-        <v>74</v>
+      <c r="AL464" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:38" x14ac:dyDescent="0.25">
@@ -56538,8 +56582,8 @@
       <c r="AK465" s="16">
         <v>172</v>
       </c>
-      <c r="AL465" s="16">
-        <v>74</v>
+      <c r="AL465" s="44">
+        <v>73</v>
       </c>
     </row>
     <row r="466" spans="1:38" x14ac:dyDescent="0.25">
@@ -56658,126 +56702,126 @@
       <c r="AK466" s="16">
         <v>172</v>
       </c>
-      <c r="AL466" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="467" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="27" t="s">
+      <c r="AL466" s="44">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B467" s="27">
+      <c r="B467" s="45">
         <v>31</v>
       </c>
-      <c r="C467" s="28" t="s">
+      <c r="C467" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D467" s="27" t="s">
+      <c r="D467" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E467" s="27" t="s">
+      <c r="E467" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F467" s="27" t="s">
+      <c r="F467" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G467" s="29">
+      <c r="G467" s="47">
         <v>44921</v>
       </c>
-      <c r="H467" s="30">
+      <c r="H467" s="48">
         <v>0.41805555555555557</v>
       </c>
-      <c r="I467" s="27">
+      <c r="I467" s="45">
         <v>5</v>
       </c>
-      <c r="J467" s="27">
+      <c r="J467" s="45">
         <v>16</v>
       </c>
-      <c r="K467" s="27">
+      <c r="K467" s="45">
         <v>6</v>
       </c>
-      <c r="L467" s="27">
+      <c r="L467" s="45">
         <v>8</v>
       </c>
-      <c r="M467" s="27">
+      <c r="M467" s="45">
         <v>2</v>
       </c>
-      <c r="N467" s="27">
+      <c r="N467" s="45">
         <v>35</v>
       </c>
-      <c r="O467" s="31">
+      <c r="O467" s="49">
         <v>0.85416666666666663</v>
       </c>
-      <c r="P467" s="30">
+      <c r="P467" s="48">
         <f t="shared" si="47"/>
         <v>0.43611111111111106</v>
       </c>
-      <c r="Q467" s="32">
+      <c r="Q467" s="50">
         <v>627.99999999999989</v>
       </c>
-      <c r="R467" s="33">
+      <c r="R467" s="51">
         <v>0.97916666666666663</v>
       </c>
-      <c r="S467" s="33">
+      <c r="S467" s="51">
         <v>0.2951388888888889</v>
       </c>
-      <c r="T467" s="34">
+      <c r="T467" s="52">
         <f t="shared" si="46"/>
         <v>0.31597222222222221</v>
       </c>
-      <c r="U467" s="39">
+      <c r="U467" s="55">
         <v>380</v>
       </c>
-      <c r="V467" s="27">
+      <c r="V467" s="45">
         <v>35</v>
       </c>
-      <c r="W467" s="27">
-        <v>4</v>
-      </c>
-      <c r="X467" s="27">
+      <c r="W467" s="45">
+        <v>4</v>
+      </c>
+      <c r="X467" s="45">
         <v>1</v>
       </c>
-      <c r="Y467" s="27">
-        <v>3</v>
-      </c>
-      <c r="Z467" s="27">
+      <c r="Y467" s="45">
+        <v>3</v>
+      </c>
+      <c r="Z467" s="45">
         <v>6</v>
       </c>
-      <c r="AA467" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB467" s="27">
+      <c r="AA467" s="45">
+        <v>3</v>
+      </c>
+      <c r="AB467" s="45">
         <v>4253</v>
       </c>
-      <c r="AC467" s="27">
+      <c r="AC467" s="45">
         <v>99</v>
       </c>
-      <c r="AD467" s="27">
+      <c r="AD467" s="45">
         <v>99</v>
       </c>
-      <c r="AE467" s="27">
+      <c r="AE467" s="45">
         <v>91</v>
       </c>
-      <c r="AF467" s="27">
+      <c r="AF467" s="45">
         <v>87</v>
       </c>
-      <c r="AG467" s="32">
+      <c r="AG467" s="50">
         <v>1400</v>
       </c>
-      <c r="AH467" s="27">
+      <c r="AH467" s="45">
         <v>145</v>
       </c>
-      <c r="AI467" s="37">
+      <c r="AI467" s="54">
         <v>0.13402777777777777</v>
       </c>
-      <c r="AJ467" s="37">
+      <c r="AJ467" s="54">
         <v>0.10416666666666667</v>
       </c>
-      <c r="AK467" s="27">
+      <c r="AK467" s="45">
         <v>172</v>
       </c>
-      <c r="AL467" s="27">
-        <v>74</v>
+      <c r="AL467" s="56">
+        <v>76.791821123718663</v>
       </c>
     </row>
     <row r="468" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -56894,8 +56938,8 @@
       <c r="AK468" s="27">
         <v>172</v>
       </c>
-      <c r="AL468" s="27">
-        <v>74</v>
+      <c r="AL468" s="56">
+        <v>74.756353777721174</v>
       </c>
     </row>
     <row r="469" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57012,8 +57056,8 @@
       <c r="AK469" s="27">
         <v>172</v>
       </c>
-      <c r="AL469" s="27">
-        <v>74</v>
+      <c r="AL469" s="56">
+        <v>75.450689964900448</v>
       </c>
     </row>
     <row r="470" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57130,8 +57174,8 @@
       <c r="AK470" s="27">
         <v>172</v>
       </c>
-      <c r="AL470" s="27">
-        <v>74</v>
+      <c r="AL470" s="56">
+        <v>75.473645193021682</v>
       </c>
     </row>
     <row r="471" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57248,8 +57292,8 @@
       <c r="AK471" s="27">
         <v>172</v>
       </c>
-      <c r="AL471" s="27">
-        <v>74</v>
+      <c r="AL471" s="56">
+        <v>75.306419396852803</v>
       </c>
     </row>
     <row r="472" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57366,8 +57410,8 @@
       <c r="AK472" s="27">
         <v>172</v>
       </c>
-      <c r="AL472" s="27">
-        <v>74</v>
+      <c r="AL472" s="56">
+        <v>74.381220534728328</v>
       </c>
     </row>
     <row r="473" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57484,8 +57528,8 @@
       <c r="AK473" s="27">
         <v>172</v>
       </c>
-      <c r="AL473" s="27">
-        <v>74</v>
+      <c r="AL473" s="56">
+        <v>74.412559761882576</v>
       </c>
     </row>
     <row r="474" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57602,8 +57646,8 @@
       <c r="AK474" s="27">
         <v>172</v>
       </c>
-      <c r="AL474" s="27">
-        <v>74</v>
+      <c r="AL474" s="56">
+        <v>75.448409817871564</v>
       </c>
     </row>
     <row r="475" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57720,8 +57764,8 @@
       <c r="AK475" s="27">
         <v>172</v>
       </c>
-      <c r="AL475" s="27">
-        <v>74</v>
+      <c r="AL475" s="56">
+        <v>74.9248323445902</v>
       </c>
     </row>
     <row r="476" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57838,8 +57882,8 @@
       <c r="AK476" s="27">
         <v>172</v>
       </c>
-      <c r="AL476" s="27">
-        <v>74</v>
+      <c r="AL476" s="56">
+        <v>75.020325458678116</v>
       </c>
     </row>
     <row r="477" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -57956,8 +58000,8 @@
       <c r="AK477" s="27">
         <v>172</v>
       </c>
-      <c r="AL477" s="27">
-        <v>74</v>
+      <c r="AL477" s="56">
+        <v>74.082694648560192</v>
       </c>
     </row>
     <row r="478" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58074,8 +58118,8 @@
       <c r="AK478" s="27">
         <v>172</v>
       </c>
-      <c r="AL478" s="27">
-        <v>74</v>
+      <c r="AL478" s="56">
+        <v>75.029295305672463</v>
       </c>
     </row>
     <row r="479" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58192,8 +58236,8 @@
       <c r="AK479" s="27">
         <v>172</v>
       </c>
-      <c r="AL479" s="27">
-        <v>74</v>
+      <c r="AL479" s="56">
+        <v>74.439102597828807</v>
       </c>
     </row>
     <row r="480" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58310,8 +58354,8 @@
       <c r="AK480" s="27">
         <v>172</v>
       </c>
-      <c r="AL480" s="27">
-        <v>74</v>
+      <c r="AL480" s="56">
+        <v>75.885133160688895</v>
       </c>
     </row>
     <row r="481" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58428,8 +58472,8 @@
       <c r="AK481" s="27">
         <v>172</v>
       </c>
-      <c r="AL481" s="27">
-        <v>74</v>
+      <c r="AL481" s="56">
+        <v>74.417409446506952</v>
       </c>
     </row>
     <row r="482" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58546,8 +58590,8 @@
       <c r="AK482" s="27">
         <v>172</v>
       </c>
-      <c r="AL482" s="27">
-        <v>74</v>
+      <c r="AL482" s="56">
+        <v>75.346233847050129</v>
       </c>
     </row>
     <row r="483" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58664,8 +58708,8 @@
       <c r="AK483" s="27">
         <v>172</v>
       </c>
-      <c r="AL483" s="27">
-        <v>74</v>
+      <c r="AL483" s="56">
+        <v>74.233515421881478</v>
       </c>
     </row>
     <row r="484" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58782,8 +58826,8 @@
       <c r="AK484" s="27">
         <v>172</v>
       </c>
-      <c r="AL484" s="27">
-        <v>74</v>
+      <c r="AL484" s="56">
+        <v>74.535231770362955</v>
       </c>
     </row>
     <row r="485" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -58900,8 +58944,8 @@
       <c r="AK485" s="27">
         <v>172</v>
       </c>
-      <c r="AL485" s="27">
-        <v>74</v>
+      <c r="AL485" s="56">
+        <v>75.442874221869971</v>
       </c>
     </row>
     <row r="486" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59018,8 +59062,8 @@
       <c r="AK486" s="27">
         <v>172</v>
       </c>
-      <c r="AL486" s="27">
-        <v>74</v>
+      <c r="AL486" s="56">
+        <v>75.559804771246533</v>
       </c>
     </row>
     <row r="487" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59136,8 +59180,8 @@
       <c r="AK487" s="27">
         <v>172</v>
       </c>
-      <c r="AL487" s="27">
-        <v>74</v>
+      <c r="AL487" s="56">
+        <v>75.796839798162495</v>
       </c>
     </row>
     <row r="488" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59254,8 +59298,8 @@
       <c r="AK488" s="27">
         <v>172</v>
       </c>
-      <c r="AL488" s="27">
-        <v>74</v>
+      <c r="AL488" s="56">
+        <v>75.052589224056703</v>
       </c>
     </row>
     <row r="489" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59372,8 +59416,8 @@
       <c r="AK489" s="27">
         <v>172</v>
       </c>
-      <c r="AL489" s="27">
-        <v>74</v>
+      <c r="AL489" s="56">
+        <v>74.319993117459191</v>
       </c>
     </row>
     <row r="490" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59490,8 +59534,8 @@
       <c r="AK490" s="27">
         <v>172</v>
       </c>
-      <c r="AL490" s="27">
-        <v>74</v>
+      <c r="AL490" s="56">
+        <v>74.286295513239807</v>
       </c>
     </row>
     <row r="491" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59608,8 +59652,8 @@
       <c r="AK491" s="27">
         <v>172</v>
       </c>
-      <c r="AL491" s="27">
-        <v>74</v>
+      <c r="AL491" s="56">
+        <v>74.707145394287664</v>
       </c>
     </row>
     <row r="492" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59726,8 +59770,8 @@
       <c r="AK492" s="27">
         <v>172</v>
       </c>
-      <c r="AL492" s="27">
-        <v>74</v>
+      <c r="AL492" s="56">
+        <v>74.472805627024115</v>
       </c>
     </row>
     <row r="493" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59844,8 +59888,8 @@
       <c r="AK493" s="27">
         <v>172</v>
       </c>
-      <c r="AL493" s="27">
-        <v>74</v>
+      <c r="AL493" s="56">
+        <v>74.218731023079513</v>
       </c>
     </row>
     <row r="494" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -59962,8 +60006,8 @@
       <c r="AK494" s="27">
         <v>172</v>
       </c>
-      <c r="AL494" s="27">
-        <v>74</v>
+      <c r="AL494" s="56">
+        <v>75.924447293229747</v>
       </c>
     </row>
     <row r="495" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60080,8 +60124,8 @@
       <c r="AK495" s="27">
         <v>172</v>
       </c>
-      <c r="AL495" s="27">
-        <v>74</v>
+      <c r="AL495" s="56">
+        <v>74.467182641750895</v>
       </c>
     </row>
     <row r="496" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60198,8 +60242,8 @@
       <c r="AK496" s="27">
         <v>172</v>
       </c>
-      <c r="AL496" s="27">
-        <v>74</v>
+      <c r="AL496" s="56">
+        <v>74.902212764394022</v>
       </c>
     </row>
     <row r="497" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60316,8 +60360,8 @@
       <c r="AK497" s="27">
         <v>172</v>
       </c>
-      <c r="AL497" s="27">
-        <v>74</v>
+      <c r="AL497" s="56">
+        <v>75.757923068165084</v>
       </c>
     </row>
     <row r="498" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60434,8 +60478,8 @@
       <c r="AK498" s="27">
         <v>172</v>
       </c>
-      <c r="AL498" s="27">
-        <v>74</v>
+      <c r="AL498" s="56">
+        <v>75.245210644109321</v>
       </c>
     </row>
     <row r="499" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60552,8 +60596,8 @@
       <c r="AK499" s="27">
         <v>172</v>
       </c>
-      <c r="AL499" s="27">
-        <v>74</v>
+      <c r="AL499" s="56">
+        <v>74.87234973708216</v>
       </c>
     </row>
     <row r="500" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60670,8 +60714,8 @@
       <c r="AK500" s="27">
         <v>172</v>
       </c>
-      <c r="AL500" s="27">
-        <v>74</v>
+      <c r="AL500" s="56">
+        <v>75.622380954762903</v>
       </c>
     </row>
     <row r="501" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60788,8 +60832,8 @@
       <c r="AK501" s="27">
         <v>172</v>
       </c>
-      <c r="AL501" s="27">
-        <v>74</v>
+      <c r="AL501" s="56">
+        <v>74.067022616597228</v>
       </c>
     </row>
     <row r="502" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -60906,8 +60950,8 @@
       <c r="AK502" s="27">
         <v>172</v>
       </c>
-      <c r="AL502" s="27">
-        <v>74</v>
+      <c r="AL502" s="56">
+        <v>75.02924085732775</v>
       </c>
     </row>
     <row r="503" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61024,8 +61068,8 @@
       <c r="AK503" s="27">
         <v>172</v>
       </c>
-      <c r="AL503" s="27">
-        <v>74</v>
+      <c r="AL503" s="56">
+        <v>75.719362080440675</v>
       </c>
     </row>
     <row r="504" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61142,8 +61186,8 @@
       <c r="AK504" s="27">
         <v>172</v>
       </c>
-      <c r="AL504" s="27">
-        <v>74</v>
+      <c r="AL504" s="56">
+        <v>75.169307694113456</v>
       </c>
     </row>
     <row r="505" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61260,8 +61304,8 @@
       <c r="AK505" s="27">
         <v>172</v>
       </c>
-      <c r="AL505" s="27">
-        <v>74</v>
+      <c r="AL505" s="56">
+        <v>75.864260970647493</v>
       </c>
     </row>
     <row r="506" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61378,8 +61422,8 @@
       <c r="AK506" s="27">
         <v>172</v>
       </c>
-      <c r="AL506" s="27">
-        <v>74</v>
+      <c r="AL506" s="56">
+        <v>75.315588177809317</v>
       </c>
     </row>
     <row r="507" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61496,8 +61540,8 @@
       <c r="AK507" s="27">
         <v>172</v>
       </c>
-      <c r="AL507" s="27">
-        <v>74</v>
+      <c r="AL507" s="56">
+        <v>75.556637493559691</v>
       </c>
     </row>
     <row r="508" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61614,8 +61658,8 @@
       <c r="AK508" s="27">
         <v>172</v>
       </c>
-      <c r="AL508" s="27">
-        <v>74</v>
+      <c r="AL508" s="56">
+        <v>74.116530072997975</v>
       </c>
     </row>
     <row r="509" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61732,8 +61776,8 @@
       <c r="AK509" s="27">
         <v>172</v>
       </c>
-      <c r="AL509" s="27">
-        <v>74</v>
+      <c r="AL509" s="56">
+        <v>74.622710355933961</v>
       </c>
     </row>
     <row r="510" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61850,8 +61894,8 @@
       <c r="AK510" s="27">
         <v>172</v>
       </c>
-      <c r="AL510" s="27">
-        <v>74</v>
+      <c r="AL510" s="56">
+        <v>74.669544463047259</v>
       </c>
     </row>
     <row r="511" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -61968,8 +62012,8 @@
       <c r="AK511" s="27">
         <v>172</v>
       </c>
-      <c r="AL511" s="27">
-        <v>74</v>
+      <c r="AL511" s="56">
+        <v>74.527934697614</v>
       </c>
     </row>
     <row r="512" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -62086,8 +62130,8 @@
       <c r="AK512" s="27">
         <v>172</v>
       </c>
-      <c r="AL512" s="27">
-        <v>74</v>
+      <c r="AL512" s="56">
+        <v>75.926975101385167</v>
       </c>
     </row>
     <row r="513" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -62204,533 +62248,697 @@
       <c r="AK513" s="27">
         <v>172</v>
       </c>
-      <c r="AL513" s="27">
-        <v>74</v>
+      <c r="AL513" s="56">
+        <v>74.685638741934227</v>
       </c>
     </row>
     <row r="514" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P514" s="12"/>
+      <c r="AL514" s="43"/>
     </row>
     <row r="515" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P515" s="12"/>
+      <c r="AL515" s="43"/>
     </row>
     <row r="516" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P516" s="12"/>
+      <c r="AL516" s="43"/>
     </row>
     <row r="517" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P517" s="12"/>
+      <c r="AL517" s="43"/>
     </row>
     <row r="518" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P518" s="12"/>
+      <c r="AL518" s="43"/>
     </row>
     <row r="519" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P519" s="12"/>
+      <c r="AL519" s="43"/>
     </row>
     <row r="520" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P520" s="12"/>
+      <c r="AL520" s="43"/>
     </row>
     <row r="521" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P521" s="12"/>
+      <c r="AL521" s="43"/>
     </row>
     <row r="522" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P522" s="12"/>
+      <c r="AL522" s="43"/>
     </row>
     <row r="523" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P523" s="12"/>
+      <c r="AL523" s="43"/>
     </row>
     <row r="524" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P524" s="12"/>
+      <c r="AL524" s="43"/>
     </row>
     <row r="525" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P525" s="12"/>
+      <c r="AL525" s="43"/>
     </row>
     <row r="526" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P526" s="12"/>
+      <c r="AL526" s="43"/>
     </row>
     <row r="527" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P527" s="12"/>
+      <c r="AL527" s="43"/>
     </row>
     <row r="528" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P528" s="12"/>
-    </row>
-    <row r="529" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL528" s="43"/>
+    </row>
+    <row r="529" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P529" s="12"/>
-    </row>
-    <row r="530" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL529" s="43"/>
+    </row>
+    <row r="530" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P530" s="12"/>
-    </row>
-    <row r="531" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL530" s="43"/>
+    </row>
+    <row r="531" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P531" s="12"/>
-    </row>
-    <row r="532" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL531" s="43"/>
+    </row>
+    <row r="532" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P532" s="12"/>
-    </row>
-    <row r="533" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL532" s="43"/>
+    </row>
+    <row r="533" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P533" s="12"/>
-    </row>
-    <row r="534" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL533" s="43"/>
+    </row>
+    <row r="534" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P534" s="12"/>
-    </row>
-    <row r="535" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL534" s="43"/>
+    </row>
+    <row r="535" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P535" s="12"/>
-    </row>
-    <row r="536" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL535" s="43"/>
+    </row>
+    <row r="536" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P536" s="12"/>
-    </row>
-    <row r="537" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL536" s="43"/>
+    </row>
+    <row r="537" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P537" s="12"/>
-    </row>
-    <row r="538" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL537" s="43"/>
+    </row>
+    <row r="538" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P538" s="12"/>
-    </row>
-    <row r="539" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL538" s="43"/>
+    </row>
+    <row r="539" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P539" s="12"/>
-    </row>
-    <row r="540" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL539" s="43"/>
+    </row>
+    <row r="540" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P540" s="12"/>
-    </row>
-    <row r="541" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL540" s="43"/>
+    </row>
+    <row r="541" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P541" s="12"/>
-    </row>
-    <row r="542" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL541" s="43"/>
+    </row>
+    <row r="542" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P542" s="12"/>
-    </row>
-    <row r="543" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL542" s="43"/>
+    </row>
+    <row r="543" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P543" s="12"/>
-    </row>
-    <row r="544" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL543" s="43"/>
+    </row>
+    <row r="544" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P544" s="12"/>
-    </row>
-    <row r="545" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL544" s="43"/>
+    </row>
+    <row r="545" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P545" s="12"/>
-    </row>
-    <row r="546" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL545" s="43"/>
+    </row>
+    <row r="546" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P546" s="12"/>
-    </row>
-    <row r="547" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL546" s="43"/>
+    </row>
+    <row r="547" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P547" s="12"/>
-    </row>
-    <row r="548" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL547" s="43"/>
+    </row>
+    <row r="548" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P548" s="12"/>
-    </row>
-    <row r="549" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL548" s="43"/>
+    </row>
+    <row r="549" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P549" s="12"/>
-    </row>
-    <row r="550" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL549" s="43"/>
+    </row>
+    <row r="550" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P550" s="12"/>
-    </row>
-    <row r="551" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL550" s="43"/>
+    </row>
+    <row r="551" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P551" s="12"/>
-    </row>
-    <row r="552" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL551" s="43"/>
+    </row>
+    <row r="552" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P552" s="12"/>
-    </row>
-    <row r="553" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL552" s="43"/>
+    </row>
+    <row r="553" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P553" s="12"/>
-    </row>
-    <row r="554" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL553" s="43"/>
+    </row>
+    <row r="554" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P554" s="12"/>
-    </row>
-    <row r="555" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL554" s="43"/>
+    </row>
+    <row r="555" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P555" s="12"/>
-    </row>
-    <row r="556" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL555" s="43"/>
+    </row>
+    <row r="556" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P556" s="12"/>
-    </row>
-    <row r="557" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL556" s="43"/>
+    </row>
+    <row r="557" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P557" s="12"/>
-    </row>
-    <row r="558" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL557" s="43"/>
+    </row>
+    <row r="558" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P558" s="12"/>
-    </row>
-    <row r="559" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL558" s="43"/>
+    </row>
+    <row r="559" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P559" s="12"/>
-    </row>
-    <row r="560" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL559" s="43"/>
+    </row>
+    <row r="560" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P560" s="12"/>
-    </row>
-    <row r="561" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL560" s="43"/>
+    </row>
+    <row r="561" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P561" s="12"/>
-    </row>
-    <row r="562" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL561" s="43"/>
+    </row>
+    <row r="562" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P562" s="12"/>
-    </row>
-    <row r="563" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL562" s="43"/>
+    </row>
+    <row r="563" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P563" s="12"/>
-    </row>
-    <row r="564" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL563" s="43"/>
+    </row>
+    <row r="564" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P564" s="12"/>
-    </row>
-    <row r="565" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL564" s="43"/>
+    </row>
+    <row r="565" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P565" s="12"/>
-    </row>
-    <row r="566" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL565" s="43"/>
+    </row>
+    <row r="566" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P566" s="12"/>
-    </row>
-    <row r="567" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL566" s="43"/>
+    </row>
+    <row r="567" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P567" s="12"/>
-    </row>
-    <row r="568" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL567" s="43"/>
+    </row>
+    <row r="568" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P568" s="12"/>
-    </row>
-    <row r="569" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL568" s="43"/>
+    </row>
+    <row r="569" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P569" s="12"/>
-    </row>
-    <row r="570" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL569" s="43"/>
+    </row>
+    <row r="570" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P570" s="12"/>
-    </row>
-    <row r="571" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL570" s="43"/>
+    </row>
+    <row r="571" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P571" s="12"/>
-    </row>
-    <row r="572" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL571" s="43"/>
+    </row>
+    <row r="572" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P572" s="12"/>
-    </row>
-    <row r="573" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL572" s="43"/>
+    </row>
+    <row r="573" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P573" s="12"/>
-    </row>
-    <row r="574" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL573" s="43"/>
+    </row>
+    <row r="574" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P574" s="12"/>
-    </row>
-    <row r="575" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL574" s="43"/>
+    </row>
+    <row r="575" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P575" s="12"/>
-    </row>
-    <row r="576" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL575" s="43"/>
+    </row>
+    <row r="576" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P576" s="12"/>
-    </row>
-    <row r="577" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL576" s="43"/>
+    </row>
+    <row r="577" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P577" s="12"/>
-    </row>
-    <row r="578" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL577" s="43"/>
+    </row>
+    <row r="578" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P578" s="12"/>
-    </row>
-    <row r="579" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL578" s="43"/>
+    </row>
+    <row r="579" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P579" s="12"/>
-    </row>
-    <row r="580" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL579" s="43"/>
+    </row>
+    <row r="580" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P580" s="12"/>
-    </row>
-    <row r="581" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL580" s="43"/>
+    </row>
+    <row r="581" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P581" s="12"/>
-    </row>
-    <row r="582" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL581" s="43"/>
+    </row>
+    <row r="582" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P582" s="12"/>
-    </row>
-    <row r="583" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL582" s="43"/>
+    </row>
+    <row r="583" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P583" s="12"/>
-    </row>
-    <row r="584" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL583" s="43"/>
+    </row>
+    <row r="584" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P584" s="12"/>
-    </row>
-    <row r="585" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL584" s="43"/>
+    </row>
+    <row r="585" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P585" s="12"/>
-    </row>
-    <row r="586" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL585" s="43"/>
+    </row>
+    <row r="586" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P586" s="12"/>
-    </row>
-    <row r="587" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL586" s="43"/>
+    </row>
+    <row r="587" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P587" s="12"/>
-    </row>
-    <row r="588" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL587" s="43"/>
+    </row>
+    <row r="588" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P588" s="12"/>
-    </row>
-    <row r="589" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL588" s="43"/>
+    </row>
+    <row r="589" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P589" s="12"/>
-    </row>
-    <row r="590" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL589" s="43"/>
+    </row>
+    <row r="590" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P590" s="12"/>
-    </row>
-    <row r="591" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL590" s="43"/>
+    </row>
+    <row r="591" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P591" s="12"/>
-    </row>
-    <row r="592" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL591" s="43"/>
+    </row>
+    <row r="592" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P592" s="12"/>
-    </row>
-    <row r="593" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL592" s="43"/>
+    </row>
+    <row r="593" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P593" s="12"/>
-    </row>
-    <row r="594" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL593" s="43"/>
+    </row>
+    <row r="594" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P594" s="12"/>
-    </row>
-    <row r="595" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL594" s="43"/>
+    </row>
+    <row r="595" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P595" s="12"/>
-    </row>
-    <row r="596" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL595" s="43"/>
+    </row>
+    <row r="596" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P596" s="12"/>
-    </row>
-    <row r="597" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL596" s="43"/>
+    </row>
+    <row r="597" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P597" s="12"/>
-    </row>
-    <row r="598" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL597" s="43"/>
+    </row>
+    <row r="598" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P598" s="12"/>
-    </row>
-    <row r="599" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL598" s="43"/>
+    </row>
+    <row r="599" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P599" s="12"/>
-    </row>
-    <row r="600" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL599" s="43"/>
+    </row>
+    <row r="600" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P600" s="12"/>
-    </row>
-    <row r="601" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL600" s="43"/>
+    </row>
+    <row r="601" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P601" s="12"/>
-    </row>
-    <row r="602" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL601" s="43"/>
+    </row>
+    <row r="602" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P602" s="12"/>
-    </row>
-    <row r="603" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL602" s="43"/>
+    </row>
+    <row r="603" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P603" s="12"/>
-    </row>
-    <row r="604" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL603" s="43"/>
+    </row>
+    <row r="604" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P604" s="12"/>
-    </row>
-    <row r="605" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL604" s="43"/>
+    </row>
+    <row r="605" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P605" s="12"/>
-    </row>
-    <row r="606" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL605" s="43"/>
+    </row>
+    <row r="606" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P606" s="12"/>
-    </row>
-    <row r="607" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL606" s="43"/>
+    </row>
+    <row r="607" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P607" s="12"/>
-    </row>
-    <row r="608" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL607" s="43"/>
+    </row>
+    <row r="608" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P608" s="12"/>
-    </row>
-    <row r="609" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL608" s="43"/>
+    </row>
+    <row r="609" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P609" s="12"/>
-    </row>
-    <row r="610" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL609" s="43"/>
+    </row>
+    <row r="610" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P610" s="12"/>
-    </row>
-    <row r="611" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL610" s="43"/>
+    </row>
+    <row r="611" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P611" s="12"/>
-    </row>
-    <row r="612" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL611" s="43"/>
+    </row>
+    <row r="612" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P612" s="12"/>
-    </row>
-    <row r="613" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL612" s="43"/>
+    </row>
+    <row r="613" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P613" s="12"/>
-    </row>
-    <row r="614" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL613" s="43"/>
+    </row>
+    <row r="614" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P614" s="12"/>
-    </row>
-    <row r="615" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL614" s="43"/>
+    </row>
+    <row r="615" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P615" s="12"/>
-    </row>
-    <row r="616" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL615" s="43"/>
+    </row>
+    <row r="616" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P616" s="12"/>
-    </row>
-    <row r="617" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL616" s="43"/>
+    </row>
+    <row r="617" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P617" s="12"/>
-    </row>
-    <row r="618" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL617" s="43"/>
+    </row>
+    <row r="618" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P618" s="12"/>
-    </row>
-    <row r="619" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL618" s="43"/>
+    </row>
+    <row r="619" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P619" s="12"/>
-    </row>
-    <row r="620" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL619" s="43"/>
+    </row>
+    <row r="620" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P620" s="12"/>
-    </row>
-    <row r="621" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL620" s="43"/>
+    </row>
+    <row r="621" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P621" s="12"/>
-    </row>
-    <row r="622" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL621" s="43"/>
+    </row>
+    <row r="622" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P622" s="12"/>
-    </row>
-    <row r="623" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL622" s="43"/>
+    </row>
+    <row r="623" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P623" s="12"/>
-    </row>
-    <row r="624" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL623" s="43"/>
+    </row>
+    <row r="624" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P624" s="12"/>
-    </row>
-    <row r="625" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL624" s="43"/>
+    </row>
+    <row r="625" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P625" s="12"/>
-    </row>
-    <row r="626" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL625" s="43"/>
+    </row>
+    <row r="626" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P626" s="12"/>
-    </row>
-    <row r="627" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL626" s="43"/>
+    </row>
+    <row r="627" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P627" s="12"/>
-    </row>
-    <row r="628" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL627" s="43"/>
+    </row>
+    <row r="628" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P628" s="12"/>
-    </row>
-    <row r="629" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL628" s="43"/>
+    </row>
+    <row r="629" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P629" s="12"/>
-    </row>
-    <row r="630" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL629" s="43"/>
+    </row>
+    <row r="630" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P630" s="12"/>
-    </row>
-    <row r="631" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL630" s="43"/>
+    </row>
+    <row r="631" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P631" s="12"/>
-    </row>
-    <row r="632" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL631" s="43"/>
+    </row>
+    <row r="632" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P632" s="12"/>
-    </row>
-    <row r="633" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL632" s="43"/>
+    </row>
+    <row r="633" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P633" s="12"/>
-    </row>
-    <row r="634" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL633" s="43"/>
+    </row>
+    <row r="634" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P634" s="12"/>
-    </row>
-    <row r="635" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL634" s="43"/>
+    </row>
+    <row r="635" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P635" s="12"/>
-    </row>
-    <row r="636" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL635" s="43"/>
+    </row>
+    <row r="636" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P636" s="12"/>
-    </row>
-    <row r="637" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL636" s="43"/>
+    </row>
+    <row r="637" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P637" s="12"/>
-    </row>
-    <row r="638" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL637" s="43"/>
+    </row>
+    <row r="638" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P638" s="12"/>
-    </row>
-    <row r="639" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL638" s="43"/>
+    </row>
+    <row r="639" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P639" s="12"/>
-    </row>
-    <row r="640" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL639" s="43"/>
+    </row>
+    <row r="640" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P640" s="12"/>
-    </row>
-    <row r="641" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL640" s="43"/>
+    </row>
+    <row r="641" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P641" s="12"/>
-    </row>
-    <row r="642" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL641" s="43"/>
+    </row>
+    <row r="642" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P642" s="12"/>
-    </row>
-    <row r="643" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL642" s="43"/>
+    </row>
+    <row r="643" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P643" s="12"/>
-    </row>
-    <row r="644" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL643" s="43"/>
+    </row>
+    <row r="644" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P644" s="12"/>
-    </row>
-    <row r="645" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL644" s="43"/>
+    </row>
+    <row r="645" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P645" s="12"/>
-    </row>
-    <row r="646" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL645" s="43"/>
+    </row>
+    <row r="646" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P646" s="12"/>
-    </row>
-    <row r="647" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL646" s="43"/>
+    </row>
+    <row r="647" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P647" s="12"/>
-    </row>
-    <row r="648" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL647" s="43"/>
+    </row>
+    <row r="648" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P648" s="12"/>
-    </row>
-    <row r="649" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL648" s="43"/>
+    </row>
+    <row r="649" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P649" s="12"/>
-    </row>
-    <row r="650" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL649" s="43"/>
+    </row>
+    <row r="650" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P650" s="12"/>
-    </row>
-    <row r="651" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL650" s="43"/>
+    </row>
+    <row r="651" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P651" s="12"/>
-    </row>
-    <row r="652" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL651" s="43"/>
+    </row>
+    <row r="652" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P652" s="12"/>
-    </row>
-    <row r="653" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL652" s="43"/>
+    </row>
+    <row r="653" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P653" s="12"/>
-    </row>
-    <row r="654" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL653" s="43"/>
+    </row>
+    <row r="654" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P654" s="12"/>
-    </row>
-    <row r="655" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL654" s="43"/>
+    </row>
+    <row r="655" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P655" s="12"/>
-    </row>
-    <row r="656" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL655" s="43"/>
+    </row>
+    <row r="656" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P656" s="12"/>
-    </row>
-    <row r="657" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL656" s="43"/>
+    </row>
+    <row r="657" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P657" s="12"/>
-    </row>
-    <row r="658" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL657" s="43"/>
+    </row>
+    <row r="658" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P658" s="12"/>
-    </row>
-    <row r="659" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL658" s="43"/>
+    </row>
+    <row r="659" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P659" s="12"/>
-    </row>
-    <row r="660" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL659" s="43"/>
+    </row>
+    <row r="660" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P660" s="12"/>
-    </row>
-    <row r="661" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL660" s="43"/>
+    </row>
+    <row r="661" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P661" s="12"/>
-    </row>
-    <row r="662" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL661" s="43"/>
+    </row>
+    <row r="662" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P662" s="12"/>
-    </row>
-    <row r="663" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL662" s="43"/>
+    </row>
+    <row r="663" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P663" s="12"/>
-    </row>
-    <row r="664" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL663" s="43"/>
+    </row>
+    <row r="664" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P664" s="12"/>
-    </row>
-    <row r="665" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL664" s="43"/>
+    </row>
+    <row r="665" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P665" s="12"/>
-    </row>
-    <row r="666" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL665" s="43"/>
+    </row>
+    <row r="666" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P666" s="12"/>
-    </row>
-    <row r="667" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL666" s="43"/>
+    </row>
+    <row r="667" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P667" s="12"/>
-    </row>
-    <row r="668" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL667" s="43"/>
+    </row>
+    <row r="668" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P668" s="12"/>
-    </row>
-    <row r="669" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL668" s="43"/>
+    </row>
+    <row r="669" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P669" s="12"/>
-    </row>
-    <row r="670" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL669" s="43"/>
+    </row>
+    <row r="670" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P670" s="12"/>
-    </row>
-    <row r="671" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL670" s="43"/>
+    </row>
+    <row r="671" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P671" s="12"/>
-    </row>
-    <row r="672" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL671" s="43"/>
+    </row>
+    <row r="672" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P672" s="12"/>
-    </row>
-    <row r="673" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL672" s="43"/>
+    </row>
+    <row r="673" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P673" s="12"/>
-    </row>
-    <row r="674" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL673" s="43"/>
+    </row>
+    <row r="674" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P674" s="12"/>
-    </row>
-    <row r="675" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL674" s="43"/>
+    </row>
+    <row r="675" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P675" s="12"/>
-    </row>
-    <row r="676" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL675" s="43"/>
+    </row>
+    <row r="676" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P676" s="12"/>
-    </row>
-    <row r="677" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL676" s="43"/>
+    </row>
+    <row r="677" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P677" s="12"/>
-    </row>
-    <row r="678" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AL677" s="43"/>
+    </row>
+    <row r="678" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P678" s="12"/>
     </row>
-    <row r="679" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P679" s="12"/>
     </row>
-    <row r="680" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P680" s="12"/>
     </row>
-    <row r="681" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P681" s="12"/>
     </row>
-    <row r="682" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P682" s="12"/>
     </row>
-    <row r="683" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P683" s="12"/>
     </row>
-    <row r="684" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P684" s="12"/>
     </row>
-    <row r="685" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P685" s="12"/>
     </row>
-    <row r="686" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P686" s="12"/>
     </row>
-    <row r="687" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P687" s="12"/>
     </row>
-    <row r="688" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P688" s="12"/>
     </row>
     <row r="689" spans="16:16" x14ac:dyDescent="0.25">
